--- a/_Format/contact_example.xlsx
+++ b/_Format/contact_example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>範例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,30 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updated_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建檔人員</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,14 +83,6 @@
   </si>
   <si>
     <t>註解說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comp_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact_remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -485,82 +453,55 @@
     <col min="9" max="9" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
